--- a/maven/src/test/java/excel/TestData.xlsx
+++ b/maven/src/test/java/excel/TestData.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ClientData" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="CreateCW" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Output" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TestData" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1053">
   <si>
     <t xml:space="preserve">TestCaseId</t>
   </si>
@@ -644,6 +645,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Service </t>
     </r>
@@ -655,6 +657,7 @@
         <color rgb="FF3F7F5F"/>
         <rFont val="Monospace"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dept</t>
     </r>
@@ -667,6 +670,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Product </t>
     </r>
@@ -678,6 +682,7 @@
         <color rgb="FF3F7F5F"/>
         <rFont val="Monospace"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dept</t>
     </r>
@@ -793,6 +798,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Bill Rate Range:</t>
     </r>
@@ -802,6 +808,7 @@
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Min</t>
     </r>
@@ -812,6 +819,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Bill Rate Range:</t>
     </r>
@@ -821,6 +829,7 @@
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Max</t>
     </r>
@@ -1888,6 +1897,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">AP Cost Center </t>
     </r>
@@ -1896,6 +1906,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -1907,6 +1918,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Job Title </t>
     </r>
@@ -1915,6 +1927,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -1926,6 +1939,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Type of Service </t>
     </r>
@@ -1934,6 +1948,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -1954,6 +1969,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Engaging Manager </t>
     </r>
@@ -1962,6 +1978,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -2011,6 +2028,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">HR Cost Center  </t>
     </r>
@@ -2019,6 +2037,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">*</t>
     </r>
@@ -2030,6 +2049,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Company Number </t>
     </r>
@@ -2038,6 +2058,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -2049,6 +2070,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EPPIC Resource Pool </t>
     </r>
@@ -2057,6 +2079,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -2068,6 +2091,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EPPIC Region </t>
     </r>
@@ -2076,6 +2100,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -2093,6 +2118,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EPPIC Project </t>
     </r>
@@ -2101,6 +2127,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -2115,6 +2142,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EPPIC Role </t>
     </r>
@@ -2123,6 +2151,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> *</t>
     </r>
@@ -3080,6 +3109,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MSP Fee</t>
     </r>
@@ -3089,6 +3119,7 @@
         <color rgb="FF362B36"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (USD)</t>
     </r>
@@ -3099,6 +3130,7 @@
         <sz val="9"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MSP OT Fee</t>
     </r>
@@ -3108,6 +3140,7 @@
         <color rgb="FF362B36"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (USD)</t>
     </r>
@@ -3435,6 +3468,21 @@
   </si>
   <si>
     <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dolly</t>
   </si>
 </sst>
 </file>
@@ -3446,12 +3494,13 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3469,92 +3518,23 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3562,12 +3542,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3575,23 +3557,27 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3599,6 +3585,7 @@
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3606,11 +3593,13 @@
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3619,18 +3608,21 @@
       <color rgb="FF3F7F5F"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3638,18 +3630,21 @@
       <color rgb="FFFFC000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFC000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3657,47 +3652,55 @@
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3705,33 +3708,45 @@
       <color rgb="FF0000FF"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF5B0DAE"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF362B36"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF676767"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF362B36"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3740,56 +3755,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF222222"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDCE6F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB9CDE5"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -3799,27 +3772,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -3837,7 +3795,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3861,369 +3819,309 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="38" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="38" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="38" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="38" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="3" xfId="38" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="38" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -4236,13 +4134,13 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -4259,7 +4157,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -4267,7 +4165,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -4280,7 +4178,7 @@
       <rgbColor rgb="FF3F7F5F"/>
       <rgbColor rgb="FF222222"/>
       <rgbColor rgb="FF362B36"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -4297,7 +4195,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5989,7 +5887,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O48:O51" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6010,7 +5908,7 @@
   </sheetPr>
   <dimension ref="A1:DV1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -6748,7 +6646,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11894,11 +11792,11 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7 F9 F11 F13 F15 F20 F25 F27 F29 F31 F33 F35" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F17 F19 F21:F23" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11927,7 +11825,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12216,4 +12114,63 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="70" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="70" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="70" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>